--- a/src/test/resources/TestData/registerinputs.xlsx
+++ b/src/test/resources/TestData/registerinputs.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26216"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26026"/>
   <workbookPr/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{A164588A-F8B9-4FA5-9AAB-CB8B1D180673}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\kanth\git\Ds_algo\src\test\resources\TestData\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D9B30BF5-F5CA-4F1A-B1A6-5C5587DB85B5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -57,17 +62,17 @@
     <t>logic</t>
   </si>
   <si>
-    <t>facebook1</t>
-  </si>
-  <si>
-    <t>Webisite@1</t>
+    <t>facebook2</t>
+  </si>
+  <si>
+    <t>Webisite@2</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -76,11 +81,12 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FF444444"/>
+      <color theme="10"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <charset val="1"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -100,14 +106,16 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
+    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -389,12 +397,17 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="E14" sqref="E14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="13.140625" customWidth="1"/>
+    <col min="2" max="2" width="13.42578125" customWidth="1"/>
+    <col min="3" max="3" width="14.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -405,7 +418,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>3</v>
       </c>
@@ -416,7 +429,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -427,7 +440,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>7</v>
       </c>
@@ -438,11 +451,11 @@
         <v>2</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>8</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="1" t="s">
         <v>9</v>
       </c>
       <c r="C5" s="1" t="s">
@@ -450,6 +463,10 @@
       </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="B5" r:id="rId1" xr:uid="{6761E19B-EB27-470F-8685-1DA6437BF739}"/>
+    <hyperlink ref="C5" r:id="rId2" xr:uid="{DA798037-A60E-470A-B0EA-3842558D278F}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>